--- a/documents/field-sampling/sample-data-sheets/WDFW_smolt_data_examples/2009 GERMANY Estimate PH.xlsx
+++ b/documents/field-sampling/sample-data-sheets/WDFW_smolt_data_examples/2009 GERMANY Estimate PH.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-3060" yWindow="390" windowWidth="19140" windowHeight="11040" tabRatio="826"/>
+    <workbookView minimized="1" xWindow="52500" yWindow="320" windowWidth="23440" windowHeight="19580" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="All Catch" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'CHIN M-R--Eff'!$I$1:$T$23</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1187,6 +1192,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="121">
   <si>
+    <t>Trap out--- high water 4/2 1:30 PM till 4/3 6 PM</t>
+  </si>
+  <si>
+    <t>Flows jump over 160 cfs</t>
+  </si>
+  <si>
+    <t>2 of the 17 beans  recapted on 2/23 prior to next release</t>
+  </si>
+  <si>
+    <t>no release-- peamouth</t>
+  </si>
+  <si>
+    <t>peamouth arrive;  smolts stressed; No mark group release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no release-- peamouth; Trap pulled out @ 12:01 am  5/14/09 </t>
+  </si>
+  <si>
+    <t>no release-- peamouth; Trap out till 9 pm 5/15/09</t>
+  </si>
+  <si>
+    <t>throw out this trial test</t>
+  </si>
+  <si>
+    <t>NOTE: end date is first day of new mark release</t>
+  </si>
+  <si>
+    <t>Chin</t>
+  </si>
+  <si>
+    <t>Coho 1+</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Mk Rl</t>
+  </si>
+  <si>
+    <t>Rcap</t>
+  </si>
+  <si>
+    <t>Mar. 15-30  simultaneous eff tests for CHIN &amp; COHO 1+</t>
+  </si>
+  <si>
+    <t>Chin Trial #</t>
+  </si>
+  <si>
+    <t>Coho Strata #</t>
+  </si>
+  <si>
+    <t>actual chin</t>
+  </si>
+  <si>
+    <t>Total combined</t>
+  </si>
+  <si>
+    <t>derived Chin from coho</t>
+  </si>
+  <si>
+    <t>Note:  Entries shaded in dark purple are summed values from  coho mark strata releases for 2009</t>
+  </si>
+  <si>
+    <t>Note: Entries shaded in light purple = summed recap values from '09 Aber Coho strata periods (adj'd. by 1.28 X as noted below in yellow)</t>
+  </si>
+  <si>
+    <t>Note: Entries in green are actual chin trial mark release and recap numbers</t>
+  </si>
+  <si>
+    <t>THROW OUT THIS SAMPLE</t>
+  </si>
+  <si>
+    <t>uses avg of coho eff between 02/13/09 and 04/06/09</t>
+  </si>
+  <si>
+    <t>No marks released during this period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note:  Total incl.constructed M-R numbers for 2/13-4/6 </t>
+  </si>
+  <si>
     <t>Hours</t>
   </si>
   <si>
@@ -1492,108 +1578,31 @@
   <si>
     <t xml:space="preserve">used 75% of coho </t>
   </si>
-  <si>
-    <t>Trap out--- high water 4/2 1:30 PM till 4/3 6 PM</t>
-  </si>
-  <si>
-    <t>Flows jump over 160 cfs</t>
-  </si>
-  <si>
-    <t>2 of the 17 beans  recapted on 2/23 prior to next release</t>
-  </si>
-  <si>
-    <t>no release-- peamouth</t>
-  </si>
-  <si>
-    <t>peamouth arrive;  smolts stressed; No mark group release</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no release-- peamouth; Trap pulled out @ 12:01 am  5/14/09 </t>
-  </si>
-  <si>
-    <t>no release-- peamouth; Trap out till 9 pm 5/15/09</t>
-  </si>
-  <si>
-    <t>throw out this trial test</t>
-  </si>
-  <si>
-    <t>NOTE: end date is first day of new mark release</t>
-  </si>
-  <si>
-    <t>Chin</t>
-  </si>
-  <si>
-    <t>Coho 1+</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
-    <t>Mk Rl</t>
-  </si>
-  <si>
-    <t>Rcap</t>
-  </si>
-  <si>
-    <t>Mar. 15-30  simultaneous eff tests for CHIN &amp; COHO 1+</t>
-  </si>
-  <si>
-    <t>Chin Trial #</t>
-  </si>
-  <si>
-    <t>Coho Strata #</t>
-  </si>
-  <si>
-    <t>actual chin</t>
-  </si>
-  <si>
-    <t>Total combined</t>
-  </si>
-  <si>
-    <t>derived Chin from coho</t>
-  </si>
-  <si>
-    <t>Note:  Entries shaded in dark purple are summed values from  coho mark strata releases for 2009</t>
-  </si>
-  <si>
-    <t>Note: Entries shaded in light purple = summed recap values from '09 Aber Coho strata periods (adj'd. by 1.28 X as noted below in yellow)</t>
-  </si>
-  <si>
-    <t>Note: Entries in green are actual chin trial mark release and recap numbers</t>
-  </si>
-  <si>
-    <t>THROW OUT THIS SAMPLE</t>
-  </si>
-  <si>
-    <t>uses avg of coho eff between 02/13/09 and 04/06/09</t>
-  </si>
-  <si>
-    <t>No marks released during this period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note:  Total incl.constructed M-R numbers for 2/13-4/6 </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="13">
+  <numFmts count="17">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="174" formatCode="0.000_);\(0.000\)"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.00000000_);\(0.00000000\)"/>
-    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="173" formatCode="0.000_);\(0.000\)"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="175" formatCode="0.00000000_);\(0.00000000\)"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1604,7 +1613,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1698,20 +1706,20 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1749,7 +1757,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1800,7 +1808,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1879,6 +1887,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2746,7 +2758,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2758,7 +2770,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2770,16 +2782,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2787,10 +2799,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="14" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="14" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2823,10 +2835,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3017,7 +3029,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3030,7 +3042,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3066,7 +3078,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3112,7 +3124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3172,7 +3184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3187,7 +3199,7 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3265,22 +3277,22 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="24" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3289,7 +3301,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3328,7 +3340,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3377,10 +3389,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3398,7 +3410,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3592,7 +3604,7 @@
     <xf numFmtId="1" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3642,7 +3654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3661,7 +3673,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3716,7 +3728,7 @@
     <xf numFmtId="11" fontId="28" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="28" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3734,7 +3746,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3794,7 +3806,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3818,7 +3830,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3836,61 +3848,61 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3899,7 +3911,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3908,7 +3920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3917,7 +3929,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3972,7 +3984,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3996,22 +4008,22 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4023,7 +4035,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4038,7 +4050,7 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="33" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4047,7 +4059,7 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4059,16 +4071,16 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4077,10 +4089,10 @@
     <xf numFmtId="2" fontId="0" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4113,7 +4125,7 @@
     <xf numFmtId="1" fontId="36" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="36" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4146,7 +4158,7 @@
     <xf numFmtId="0" fontId="37" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4161,7 +4173,7 @@
     <xf numFmtId="1" fontId="36" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4170,16 +4182,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="36" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4188,13 +4200,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4209,13 +4221,13 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4227,13 +4239,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4245,10 +4257,10 @@
     <xf numFmtId="0" fontId="28" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="28" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="28" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4260,19 +4272,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4325,7 +4337,7 @@
     <xf numFmtId="1" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4429,7 +4441,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FF008000"/>
@@ -4725,41 +4737,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AB3265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="17"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17"/>
+    <col min="1" max="1" width="10.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="17"/>
+    <col min="3" max="3" width="9.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="17"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="6" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="6" customWidth="1"/>
+    <col min="11" max="12" width="9.1640625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="6" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="6" customWidth="1"/>
+    <col min="15" max="17" width="9.1640625" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="40.5" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="27"/>
@@ -4785,37 +4797,37 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="617" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B2" s="618"/>
       <c r="C2" s="617" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D2" s="619"/>
       <c r="E2" s="620" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F2" s="621"/>
       <c r="G2" s="622" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H2" s="620"/>
       <c r="I2" s="620"/>
       <c r="J2" s="623"/>
       <c r="K2" s="613" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L2" s="614"/>
       <c r="M2" s="614"/>
       <c r="N2" s="615"/>
       <c r="O2" s="613" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="P2" s="614"/>
       <c r="Q2" s="614"/>
       <c r="R2" s="616"/>
       <c r="S2" s="613" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="T2" s="614"/>
       <c r="U2" s="614"/>
@@ -4823,70 +4835,70 @@
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1" thickBot="1">
       <c r="A3" s="33" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F3" s="268" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="S3" s="38" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="V3" s="23" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1" thickTop="1">
@@ -12201,7 +12213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="15.75" thickBot="1">
+    <row r="132" spans="1:22" ht="15" thickBot="1">
       <c r="A132" s="277">
         <v>39984</v>
       </c>
@@ -12257,9 +12269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="19.5" thickBot="1">
+    <row r="133" spans="1:22" ht="19" thickBot="1">
       <c r="A133" s="611" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B133" s="612"/>
       <c r="C133" s="612"/>
@@ -21788,57 +21800,61 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="J4:J5 J96:J110 J113:J125 J127:J128 J130 J132 J7:J51 J53:J60 J62:J92" formulaRange="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0">
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:V1311"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="92" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="52.140625" style="80" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="77" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="92" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="45" customWidth="1"/>
+    <col min="8" max="8" width="52.1640625" style="80" customWidth="1"/>
     <col min="9" max="9" width="19" style="184" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="142" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="142" customWidth="1"/>
-    <col min="12" max="13" width="10.42578125" style="184" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="92" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="19"/>
-    <col min="16" max="16" width="10.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="142" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="142"/>
+    <col min="12" max="13" width="10.5" style="184"/>
+    <col min="14" max="14" width="16.1640625" style="92" customWidth="1"/>
+    <col min="15" max="16" width="10.5" style="19"/>
     <col min="17" max="17" width="10" style="235" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="19" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="45" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="45"/>
-    <col min="21" max="21" width="20.5703125" style="45" customWidth="1"/>
-    <col min="22" max="16384" width="10.42578125" style="45"/>
+    <col min="18" max="18" width="20.6640625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" style="45" customWidth="1"/>
+    <col min="20" max="20" width="10.5" style="45"/>
+    <col min="21" max="21" width="20.5" style="45" customWidth="1"/>
+    <col min="22" max="16384" width="10.5" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1">
       <c r="A1" s="148" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="149"/>
@@ -21882,44 +21898,44 @@
       <c r="S2" s="232"/>
       <c r="T2" s="145"/>
     </row>
-    <row r="3" spans="1:22" s="83" customFormat="1">
+    <row r="3" spans="1:22" s="83" customFormat="1" ht="13">
       <c r="A3" s="152"/>
       <c r="B3" s="153" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C3" s="154" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D3" s="155" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E3" s="156" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F3" s="157" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G3" s="155" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H3" s="156"/>
       <c r="I3" s="158"/>
       <c r="J3" s="158"/>
       <c r="K3" s="159" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L3" s="159" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M3" s="158" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="N3" s="158" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="O3" s="160"/>
       <c r="P3" s="624" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="625"/>
       <c r="R3" s="152"/>
@@ -21927,69 +21943,69 @@
       <c r="T3" s="233"/>
       <c r="U3" s="152"/>
     </row>
-    <row r="4" spans="1:22" s="83" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:22" s="83" customFormat="1" thickBot="1">
       <c r="A4" s="161" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B4" s="162" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C4" s="163" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D4" s="164" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E4" s="161" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F4" s="165" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G4" s="164" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="H4" s="166" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I4" s="158" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="J4" s="520" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="K4" s="159" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="L4" s="159" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="M4" s="158" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N4" s="158" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="O4" s="476" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="P4" s="522" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="523" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="R4" s="477" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="S4" s="478" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="T4" s="234" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="U4" s="152" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="21.75" customHeight="1" thickTop="1">
@@ -22045,7 +22061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75">
+    <row r="6" spans="1:22" ht="15">
       <c r="A6" s="44">
         <v>39858</v>
       </c>
@@ -22094,7 +22110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75">
+    <row r="7" spans="1:22" ht="15">
       <c r="A7" s="44">
         <v>39859</v>
       </c>
@@ -22143,7 +22159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75">
+    <row r="8" spans="1:22" ht="15">
       <c r="A8" s="44">
         <v>39860</v>
       </c>
@@ -22195,7 +22211,7 @@
       </c>
       <c r="V8" s="46"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75">
+    <row r="9" spans="1:22" ht="15">
       <c r="A9" s="44">
         <v>39861</v>
       </c>
@@ -22247,7 +22263,7 @@
       </c>
       <c r="V9" s="46"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75">
+    <row r="10" spans="1:22" ht="15">
       <c r="A10" s="44">
         <v>39862</v>
       </c>
@@ -22299,7 +22315,7 @@
       </c>
       <c r="V10" s="46"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="15">
       <c r="A11" s="44">
         <v>39863</v>
       </c>
@@ -22358,7 +22374,7 @@
       </c>
       <c r="V11" s="46"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" thickBot="1">
+    <row r="12" spans="1:22" ht="16" thickBot="1">
       <c r="A12" s="44">
         <v>39864</v>
       </c>
@@ -22416,7 +22432,7 @@
       </c>
       <c r="V12" s="46"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" thickTop="1">
+    <row r="13" spans="1:22" ht="16" thickTop="1">
       <c r="A13" s="44">
         <v>39865</v>
       </c>
@@ -22442,11 +22458,11 @@
         <v>#REF!</v>
       </c>
       <c r="R13" s="554" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="S13" s="46"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1">
+    <row r="14" spans="1:22" ht="15" thickBot="1">
       <c r="A14" s="44">
         <v>39866</v>
       </c>
@@ -22464,10 +22480,10 @@
         <v>0.34</v>
       </c>
       <c r="H14" s="308" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="I14" s="547" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="J14" s="519"/>
       <c r="K14" s="519"/>
@@ -22486,13 +22502,13 @@
         <v>32</v>
       </c>
       <c r="R14" s="576" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="S14" s="223"/>
       <c r="T14" s="46"/>
       <c r="U14" s="46"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickTop="1">
+    <row r="15" spans="1:22" ht="15" thickTop="1">
       <c r="A15" s="44">
         <v>39867</v>
       </c>
@@ -22519,7 +22535,7 @@
         <v>#REF!</v>
       </c>
       <c r="R15" s="143" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="S15" s="223"/>
       <c r="T15" s="46"/>
@@ -22537,7 +22553,7 @@
       <c r="G16" s="139"/>
       <c r="H16" s="308"/>
       <c r="I16" s="556" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="J16" s="557"/>
       <c r="K16" s="557"/>
@@ -22561,7 +22577,7 @@
       <c r="G17" s="139"/>
       <c r="H17" s="308"/>
       <c r="I17" s="562" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J17" s="564"/>
       <c r="K17" s="564"/>
@@ -22618,7 +22634,7 @@
       <c r="G20" s="139"/>
       <c r="H20" s="308"/>
       <c r="J20" s="504" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="K20" s="505"/>
       <c r="L20" s="505"/>
@@ -22637,14 +22653,14 @@
       <c r="G21" s="139"/>
       <c r="H21" s="308"/>
       <c r="J21" s="486" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K21" s="177"/>
       <c r="L21" s="177" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="M21" s="143" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="N21" s="487"/>
     </row>
@@ -22660,7 +22676,7 @@
       <c r="G22" s="139"/>
       <c r="H22" s="308"/>
       <c r="J22" s="479" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="K22" s="177"/>
       <c r="L22" s="143">
@@ -22688,7 +22704,7 @@
       <c r="G23" s="139"/>
       <c r="H23" s="308"/>
       <c r="J23" s="482" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="K23" s="483"/>
       <c r="L23" s="484">
@@ -22717,7 +22733,7 @@
       <c r="G24" s="139"/>
       <c r="H24" s="308"/>
       <c r="J24" s="569" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="K24" s="570"/>
       <c r="L24" s="570"/>
@@ -23038,7 +23054,7 @@
         <v>0.08</v>
       </c>
       <c r="H43" s="308" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -23108,7 +23124,7 @@
         <v>0.08</v>
       </c>
       <c r="H47" s="308" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -23141,7 +23157,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="310"/>
       <c r="H49" s="488" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -23169,7 +23185,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="310"/>
       <c r="H51" s="309" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -23189,7 +23205,7 @@
       <c r="G52" s="310"/>
       <c r="H52" s="308"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15" thickBot="1">
       <c r="A53" s="44"/>
       <c r="B53" s="320"/>
       <c r="C53" s="321"/>
@@ -23199,9 +23215,9 @@
       <c r="G53" s="324"/>
       <c r="H53" s="308"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickTop="1">
+    <row r="54" spans="1:8" ht="15" thickTop="1">
       <c r="A54" s="167" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B54" s="311">
         <f>SUM(B5:B53)</f>
@@ -23228,7 +23244,7 @@
         <v>0.19953596287703015</v>
       </c>
       <c r="H54" s="309" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -23241,7 +23257,7 @@
       <c r="G55" s="173"/>
       <c r="H55" s="308"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="169"/>
       <c r="B56" s="174"/>
       <c r="C56" s="163"/>
@@ -23257,7 +23273,7 @@
       <c r="C57" s="45"/>
       <c r="D57" s="140"/>
       <c r="H57" s="309" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -35796,60 +35812,65 @@
   <mergeCells count="1">
     <mergeCell ref="P3:Q3"/>
   </mergeCells>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AR302"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="47" customWidth="1"/>
     <col min="2" max="5" width="6" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="9" customWidth="1"/>
     <col min="7" max="9" width="6" style="9" customWidth="1"/>
     <col min="10" max="10" width="6" style="6" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="9" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="93" hidden="1" customWidth="1"/>
     <col min="13" max="16" width="6" style="9" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="9" customWidth="1"/>
     <col min="18" max="20" width="6" style="9" customWidth="1"/>
     <col min="21" max="21" width="6" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" style="9" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="93" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" style="50" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="3.85546875" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="19"/>
+    <col min="22" max="22" width="6.1640625" style="9" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="93" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" style="50" customWidth="1"/>
+    <col min="28" max="28" width="16.83203125" customWidth="1"/>
+    <col min="29" max="29" width="7.5" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="3.83203125" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" style="19"/>
     <col min="32" max="32" width="11" style="19" customWidth="1"/>
-    <col min="33" max="33" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.140625" style="19"/>
-    <col min="36" max="36" width="9.140625" style="92"/>
-    <col min="37" max="37" width="9.140625" style="19"/>
-    <col min="38" max="38" width="13.28515625" style="444" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="8.83203125" style="19"/>
+    <col min="36" max="36" width="8.83203125" style="92"/>
+    <col min="37" max="37" width="8.83203125" style="19"/>
+    <col min="38" max="38" width="13.33203125" style="444" customWidth="1"/>
     <col min="39" max="39" width="12" style="444" customWidth="1"/>
-    <col min="40" max="40" width="25.140625" style="19" customWidth="1"/>
+    <col min="40" max="40" width="25.1640625" style="19" customWidth="1"/>
     <col min="41" max="41" width="60" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="63" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A1" s="59" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -35891,7 +35912,7 @@
       <c r="AN1" s="179"/>
       <c r="AO1" s="179"/>
     </row>
-    <row r="2" spans="1:43" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:43" s="21" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A2" s="54"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -35922,7 +35943,7 @@
       <c r="AB2" s="55"/>
       <c r="AC2" s="57"/>
       <c r="AE2" s="201" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="204"/>
       <c r="AG2" s="204"/>
@@ -35935,18 +35956,18 @@
       <c r="AN2" s="204"/>
       <c r="AO2" s="245"/>
     </row>
-    <row r="3" spans="1:43" s="21" customFormat="1" ht="16.5" thickTop="1">
+    <row r="3" spans="1:43" s="21" customFormat="1" ht="16" thickTop="1">
       <c r="A3" s="58" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B3" s="626" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C3" s="627"/>
       <c r="D3" s="627"/>
       <c r="E3" s="627"/>
       <c r="F3" s="628" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G3" s="627"/>
       <c r="H3" s="627"/>
@@ -35955,13 +35976,13 @@
       <c r="K3" s="97"/>
       <c r="L3" s="91"/>
       <c r="M3" s="629" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N3" s="630"/>
       <c r="O3" s="630"/>
       <c r="P3" s="630"/>
       <c r="Q3" s="631" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="R3" s="630"/>
       <c r="S3" s="630"/>
@@ -35970,7 +35991,7 @@
       <c r="V3" s="126"/>
       <c r="W3" s="186"/>
       <c r="X3" s="632" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Y3" s="633"/>
       <c r="Z3" s="633"/>
@@ -35978,19 +35999,19 @@
       <c r="AB3" s="633"/>
       <c r="AC3" s="634"/>
       <c r="AE3" s="194" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AF3" s="159" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="AG3" s="159" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="AH3" s="158" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AI3" s="158" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ3" s="195"/>
       <c r="AK3" s="158"/>
@@ -35999,73 +36020,73 @@
       <c r="AN3" s="158"/>
       <c r="AO3" s="246"/>
     </row>
-    <row r="4" spans="1:43" s="19" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:43" s="19" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="52"/>
       <c r="B4" s="98" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D4" s="99" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F4" s="100" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G4" s="99" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H4" s="99" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I4" s="99" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="J4" s="121" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K4" s="121" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="L4" s="122" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="N4" s="102" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O4" s="102" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="P4" s="102" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="103" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="R4" s="102" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="S4" s="102" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="T4" s="102" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="U4" s="129" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="V4" s="129" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="W4" s="187" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="X4" s="192"/>
       <c r="Y4" s="48"/>
@@ -36075,34 +36096,34 @@
       <c r="AC4" s="49"/>
       <c r="AE4" s="162"/>
       <c r="AF4" s="202" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AG4" s="202" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="AH4" s="161" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="AI4" s="161" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AJ4" s="203" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="AK4" s="161" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AL4" s="440" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="AM4" s="440" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="AN4" s="161" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AO4" s="247" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="21.75" customHeight="1" thickTop="1">
@@ -37439,7 +37460,7 @@
       <c r="AO24" s="247"/>
       <c r="AR24" s="9"/>
     </row>
-    <row r="25" spans="1:44" ht="15.75" thickBot="1">
+    <row r="25" spans="1:44" ht="15" thickBot="1">
       <c r="A25" s="51">
         <v>39877</v>
       </c>
@@ -37472,7 +37493,7 @@
       <c r="AB25" s="64"/>
       <c r="AC25" s="229"/>
       <c r="AE25" s="214" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AF25" s="198"/>
       <c r="AG25" s="198"/>
@@ -37497,7 +37518,7 @@
       <c r="AN25" s="213"/>
       <c r="AO25" s="247"/>
     </row>
-    <row r="26" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:44" ht="16" thickTop="1" thickBot="1">
       <c r="A26" s="51">
         <v>39878</v>
       </c>
@@ -37532,12 +37553,12 @@
       <c r="AB26" s="64"/>
       <c r="AC26" s="229"/>
       <c r="AH26" s="436" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="AN26" s="249"/>
       <c r="AO26" s="247"/>
     </row>
-    <row r="27" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:44" ht="16" thickTop="1" thickBot="1">
       <c r="A27" s="51">
         <v>39879</v>
       </c>
@@ -37574,7 +37595,7 @@
       <c r="AN27" s="250"/>
       <c r="AO27" s="251"/>
     </row>
-    <row r="28" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:44" ht="16" thickTop="1" thickBot="1">
       <c r="A28" s="51">
         <v>39880</v>
       </c>
@@ -37607,7 +37628,7 @@
       <c r="AB28" s="64"/>
       <c r="AC28" s="229"/>
       <c r="AE28" s="218" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="AF28" s="204"/>
       <c r="AG28" s="204"/>
@@ -37620,7 +37641,7 @@
       <c r="AN28" s="587"/>
       <c r="AO28" s="176"/>
     </row>
-    <row r="29" spans="1:44" ht="15.75" thickTop="1">
+    <row r="29" spans="1:44" ht="15" thickTop="1">
       <c r="A29" s="51">
         <v>39881</v>
       </c>
@@ -37655,19 +37676,19 @@
       <c r="AB29" s="64"/>
       <c r="AC29" s="229"/>
       <c r="AE29" s="194" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AF29" s="159" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="AG29" s="159" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="AH29" s="158" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ29" s="195"/>
       <c r="AK29" s="158"/>
@@ -37712,31 +37733,31 @@
       <c r="AC30" s="229"/>
       <c r="AE30" s="194"/>
       <c r="AF30" s="237" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AG30" s="237" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="AH30" s="158" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="AI30" s="158" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AJ30" s="195" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="AK30" s="158" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AL30" s="445" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="AM30" s="445" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="AN30" s="588" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AO30" s="577"/>
     </row>
@@ -37785,7 +37806,7 @@
       <c r="AM31" s="583"/>
       <c r="AN31" s="584"/>
       <c r="AO31" s="605" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:44">
@@ -37853,7 +37874,7 @@
         <v>1</v>
       </c>
       <c r="AO32" s="605" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -37889,7 +37910,7 @@
       <c r="AB33" s="64"/>
       <c r="AC33" s="229"/>
       <c r="AD33" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AE33" s="239">
         <v>2</v>
@@ -37956,7 +37977,7 @@
       <c r="AB34" s="64"/>
       <c r="AC34" s="229"/>
       <c r="AD34" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="AE34" s="239">
         <v>3</v>
@@ -38023,7 +38044,7 @@
       <c r="V35" s="130"/>
       <c r="W35" s="188"/>
       <c r="X35" s="429" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="430"/>
       <c r="Z35" s="430"/>
@@ -38031,7 +38052,7 @@
       <c r="AB35" s="430"/>
       <c r="AC35" s="229"/>
       <c r="AD35" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="AE35" s="239">
         <v>4</v>
@@ -38108,7 +38129,7 @@
       <c r="AB36" s="64"/>
       <c r="AC36" s="229"/>
       <c r="AD36" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AE36" s="239">
         <v>5</v>
@@ -38183,7 +38204,7 @@
       <c r="AB37" s="64"/>
       <c r="AC37" s="229"/>
       <c r="AD37" s="586" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AE37" s="252">
         <v>6</v>
@@ -38258,7 +38279,7 @@
       <c r="AB38" s="64"/>
       <c r="AC38" s="229"/>
       <c r="AD38" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="AE38" s="239">
         <v>7</v>
@@ -38333,7 +38354,7 @@
       <c r="AB39" s="64"/>
       <c r="AC39" s="229"/>
       <c r="AD39" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="AE39" s="239">
         <v>8</v>
@@ -38406,7 +38427,7 @@
       <c r="AB40" s="64"/>
       <c r="AC40" s="229"/>
       <c r="AD40" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="AE40" s="239">
         <v>9</v>
@@ -38477,7 +38498,7 @@
       <c r="AB41" s="64"/>
       <c r="AC41" s="229"/>
       <c r="AD41" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AE41" s="239">
         <v>10</v>
@@ -38550,7 +38571,7 @@
       <c r="AB42" s="64"/>
       <c r="AC42" s="229"/>
       <c r="AD42" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AE42" s="252">
         <v>11</v>
@@ -38621,7 +38642,7 @@
       <c r="AB43" s="64"/>
       <c r="AC43" s="229"/>
       <c r="AD43" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="AE43" s="257">
         <v>12</v>
@@ -38692,7 +38713,7 @@
       <c r="AB44" s="64"/>
       <c r="AC44" s="229"/>
       <c r="AD44" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="AE44" s="239">
         <v>13</v>
@@ -38765,7 +38786,7 @@
       <c r="AB45" s="64"/>
       <c r="AC45" s="229"/>
       <c r="AD45" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AE45" s="252">
         <v>14</v>
@@ -38838,7 +38859,7 @@
       <c r="AB46" s="64"/>
       <c r="AC46" s="229"/>
       <c r="AD46" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="AE46" s="257">
         <v>15</v>
@@ -38911,7 +38932,7 @@
       <c r="AB47" s="64"/>
       <c r="AC47" s="229"/>
       <c r="AD47" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="AE47" s="239">
         <v>16</v>
@@ -38982,7 +39003,7 @@
       <c r="AB48" s="64"/>
       <c r="AC48" s="229"/>
       <c r="AD48" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="AE48" s="252">
         <v>17</v>
@@ -39055,7 +39076,7 @@
       <c r="AB49" s="64"/>
       <c r="AC49" s="229"/>
       <c r="AD49" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="AE49" s="239">
         <v>18</v>
@@ -39130,7 +39151,7 @@
       <c r="AB50" s="64"/>
       <c r="AC50" s="229"/>
       <c r="AD50" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AE50" s="239">
         <v>19</v>
@@ -39214,7 +39235,7 @@
       <c r="AN51" s="590"/>
       <c r="AO51" s="577"/>
     </row>
-    <row r="52" spans="1:41" ht="15.75" thickBot="1">
+    <row r="52" spans="1:41" ht="15" thickBot="1">
       <c r="A52" s="51">
         <v>39904</v>
       </c>
@@ -39250,7 +39271,7 @@
       <c r="AC52" s="229"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="215" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="AF52" s="216"/>
       <c r="AG52" s="216"/>
@@ -39274,10 +39295,10 @@
       <c r="AM52" s="450"/>
       <c r="AN52" s="591"/>
       <c r="AO52" s="608" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41" ht="16.5" thickTop="1" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" ht="16" thickTop="1" thickBot="1">
       <c r="A53" s="51">
         <v>39905</v>
       </c>
@@ -39310,7 +39331,7 @@
       <c r="V53" s="130"/>
       <c r="W53" s="188"/>
       <c r="X53" s="415" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="416"/>
       <c r="Z53" s="416"/>
@@ -39330,7 +39351,7 @@
       <c r="AN53" s="184"/>
       <c r="AO53" s="248"/>
     </row>
-    <row r="54" spans="1:41" ht="15.75" thickTop="1">
+    <row r="54" spans="1:41" ht="15" thickTop="1">
       <c r="A54" s="51">
         <v>39906</v>
       </c>
@@ -39464,7 +39485,7 @@
       <c r="AM56" s="451"/>
       <c r="AN56" s="184"/>
     </row>
-    <row r="57" spans="1:41" ht="15.75" thickBot="1">
+    <row r="57" spans="1:41" ht="15" thickBot="1">
       <c r="A57" s="403">
         <v>39909</v>
       </c>
@@ -39491,7 +39512,7 @@
       <c r="V57" s="411"/>
       <c r="W57" s="412"/>
       <c r="X57" s="413" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="Y57" s="414"/>
       <c r="Z57" s="414"/>
@@ -39674,14 +39695,14 @@
       <c r="V62" s="130"/>
       <c r="W62" s="188"/>
       <c r="X62" s="355" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="Y62" s="356"/>
       <c r="Z62" s="356">
         <v>0.15</v>
       </c>
       <c r="AA62" s="354" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="AB62" s="354"/>
       <c r="AC62" s="229"/>
@@ -39726,10 +39747,10 @@
         <v>0.26497005988023953</v>
       </c>
       <c r="AA63" s="354" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="AB63" s="354" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="AC63" s="229"/>
     </row>
@@ -39772,7 +39793,7 @@
         <v>0.74885844748858443</v>
       </c>
       <c r="AA64" s="354" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="AB64" s="354"/>
       <c r="AC64" s="229"/>
@@ -40030,7 +40051,7 @@
       <c r="V71" s="130"/>
       <c r="W71" s="188"/>
       <c r="X71" s="228" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="Y71" s="64"/>
       <c r="Z71" s="64"/>
@@ -40861,7 +40882,7 @@
       <c r="V92" s="130"/>
       <c r="W92" s="188"/>
       <c r="X92" s="435" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="Y92" s="351"/>
       <c r="Z92" s="351"/>
@@ -40902,7 +40923,7 @@
       <c r="V93" s="131"/>
       <c r="W93" s="188"/>
       <c r="X93" s="228" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="Y93" s="64"/>
       <c r="Z93" s="64"/>
@@ -40937,7 +40958,7 @@
       <c r="V94" s="302"/>
       <c r="W94" s="188"/>
       <c r="X94" s="228" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="Y94" s="64"/>
       <c r="Z94" s="64"/>
@@ -40972,7 +40993,7 @@
       <c r="V95" s="302"/>
       <c r="W95" s="188"/>
       <c r="X95" s="228" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="Y95" s="64"/>
       <c r="Z95" s="64"/>
@@ -41007,7 +41028,7 @@
       <c r="V96" s="131"/>
       <c r="W96" s="188"/>
       <c r="X96" s="228" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="Y96" s="64"/>
       <c r="Z96" s="349"/>
@@ -41181,7 +41202,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="AA100" s="470" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="AB100" s="471"/>
       <c r="AC100" s="229"/>
@@ -41233,10 +41254,10 @@
         <v>0.2807017543859649</v>
       </c>
       <c r="AA101" s="471" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="AB101" s="471" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="AC101" s="229"/>
     </row>
@@ -41289,7 +41310,7 @@
         <v>0.77060133630289529</v>
       </c>
       <c r="AA102" s="471" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="AB102" s="471"/>
       <c r="AC102" s="229"/>
@@ -41329,7 +41350,7 @@
       <c r="V103" s="130"/>
       <c r="W103" s="188"/>
       <c r="X103" s="435" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="Y103" s="474"/>
       <c r="Z103" s="351"/>
@@ -41374,7 +41395,7 @@
       <c r="V104" s="130"/>
       <c r="W104" s="188"/>
       <c r="X104" s="432" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="Y104" s="433"/>
       <c r="Z104" s="433"/>
@@ -42494,7 +42515,7 @@
       <c r="AB132" s="64"/>
       <c r="AC132" s="229"/>
     </row>
-    <row r="133" spans="1:41" ht="15.75" thickBot="1">
+    <row r="133" spans="1:41" ht="15" thickBot="1">
       <c r="A133" s="72">
         <v>39985</v>
       </c>
@@ -42529,7 +42550,7 @@
     </row>
     <row r="134" spans="1:41" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A134" s="72" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B134" s="99">
         <f>SUM(B5:B133)</f>
@@ -42626,7 +42647,7 @@
       <c r="AB134" s="75"/>
       <c r="AC134" s="76"/>
     </row>
-    <row r="135" spans="1:41" ht="15.75" thickTop="1">
+    <row r="135" spans="1:41" ht="15" thickTop="1">
       <c r="A135" s="51"/>
       <c r="B135" s="104"/>
       <c r="C135" s="105"/>
@@ -42659,7 +42680,7 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" s="51" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B136" s="104"/>
       <c r="C136" s="105"/>
@@ -42708,7 +42729,7 @@
       <c r="V136" s="127"/>
       <c r="W136" s="190"/>
       <c r="X136" s="228" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="Y136" s="64"/>
       <c r="Z136" s="64"/>
@@ -42760,7 +42781,7 @@
     </row>
     <row r="138" spans="1:41" s="53" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A138" s="73" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B138" s="110"/>
       <c r="C138" s="111"/>
@@ -42785,7 +42806,7 @@
       <c r="V138" s="128"/>
       <c r="W138" s="191"/>
       <c r="X138" s="193" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Y138" s="70"/>
       <c r="Z138" s="70"/>
@@ -48108,15 +48129,20 @@
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="X3:AC3"/>
   </mergeCells>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:E32"/>
@@ -48125,12 +48151,12 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -48152,30 +48178,30 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="329" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B4" s="223"/>
       <c r="C4" s="329" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="330"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+    <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" s="331" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B5" s="332" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C5" s="331" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D5" s="332" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E5" s="333" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -48199,7 +48225,7 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="336" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -48223,7 +48249,7 @@
         <v>1430</v>
       </c>
       <c r="E9" s="336" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -48247,7 +48273,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="336" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -48262,7 +48288,7 @@
         <v>39938</v>
       </c>
       <c r="B13" s="334" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C13" s="337">
         <v>39938</v>
@@ -48271,7 +48297,7 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="E13" s="336" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -48295,7 +48321,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E15" s="336" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -48319,7 +48345,7 @@
         <v>2100</v>
       </c>
       <c r="E17" s="336" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -48343,7 +48369,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E19" s="336" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -48438,6 +48464,12 @@
       <c r="E32" s="340"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>